--- a/biology/Botanique/Civet_de_langouste/Civet_de_langouste.xlsx
+++ b/biology/Botanique/Civet_de_langouste/Civet_de_langouste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le civet de langouste est un mets traditionnel de la Catalogne française (Collioure, Vallespir, Conflent, etc.), cuisiné au vin doux naturel de Banyuls.
@@ -512,9 +524,11 @@
           <t>Tradition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La llagostada, nom catalan du civet de langouste, est sur toutes les tables de la Côte Vermeille, le 15 août[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La llagostada, nom catalan du civet de langouste, est sur toutes les tables de la Côte Vermeille, le 15 août. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre des langoustes et le banyuls, la préparation de ce mets nécessite huile d'olive, cognac, fumet de poisson, sofregit, beurre manié, sel et poivre[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre des langoustes et le banyuls, la préparation de ce mets nécessite huile d'olive, cognac, fumet de poisson, sofregit, beurre manié, sel et poivre.
 			Préparation du civet de langouste.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les langoustes tronçonnées sont mises à suer, puis flambées et mouillées au banyuls. Le sofregit, porté à ébullition, est versé sur cette préparation. L'ensemble est mis alors à mijoter. Le corail et les parties crémeuses des langoustes sont mixées jusqu'à l'obtention d'une pâte très fine. La sauce est liée hors du feu avec le beurre manié ; dès qu'elle nappe la cuillère, elle est versée sur les langoustes[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les langoustes tronçonnées sont mises à suer, puis flambées et mouillées au banyuls. Le sofregit, porté à ébullition, est versé sur cette préparation. L'ensemble est mis alors à mijoter. Le corail et les parties crémeuses des langoustes sont mixées jusqu'à l'obtention d'une pâte très fine. La sauce est liée hors du feu avec le beurre manié ; dès qu'elle nappe la cuillère, elle est versée sur les langoustes.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Accord mets/vin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traditionnellement, ce mets est servi avec un côtes-du-roussillon villages[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traditionnellement, ce mets est servi avec un côtes-du-roussillon villages.
 </t>
         </is>
       </c>
